--- a/hs.xlsx
+++ b/hs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -66,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +114,46 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -194,6 +227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,16 +438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -485,7 +520,7 @@
         <v>12</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>220000</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -494,19 +529,19 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="M2">
-        <v>71</v>
+        <v>710000</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>110000</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -532,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <v>27</v>
+        <v>270000</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -541,19 +576,19 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="M3">
-        <v>824</v>
+        <v>8240000</v>
       </c>
       <c r="N3">
-        <v>61</v>
+        <v>610000</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -579,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -588,19 +623,19 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>70000</v>
       </c>
       <c r="M4">
-        <v>139</v>
+        <v>1390000</v>
       </c>
       <c r="N4">
-        <v>26</v>
+        <v>260000</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -626,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>30000</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -635,19 +670,19 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>30000</v>
       </c>
       <c r="M5">
-        <v>810</v>
+        <v>8100000</v>
       </c>
       <c r="N5">
-        <v>244</v>
+        <v>2440000</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -682,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="M6">
-        <v>190</v>
+        <v>1900000</v>
       </c>
       <c r="N6">
-        <v>19</v>
+        <v>190000</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -729,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="M7">
-        <v>1009</v>
+        <v>10090000</v>
       </c>
       <c r="N7">
-        <v>91</v>
+        <v>910000</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -767,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>43</v>
+        <v>430000</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -776,19 +811,19 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>50000</v>
       </c>
       <c r="M8">
-        <v>349</v>
+        <v>3490000</v>
       </c>
       <c r="N8">
-        <v>185</v>
+        <v>1850000</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -814,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="I9">
-        <v>29</v>
+        <v>290000</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -823,19 +858,19 @@
         <v>3</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>40000</v>
       </c>
       <c r="M9">
-        <v>1501</v>
+        <v>15010000</v>
       </c>
       <c r="N9">
-        <v>124</v>
+        <v>1240000</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -861,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>140000</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -870,19 +905,19 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>90000</v>
       </c>
       <c r="M10">
-        <v>812</v>
+        <v>8120000</v>
       </c>
       <c r="N10">
-        <v>140</v>
+        <v>1400000</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -908,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>90000</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -917,19 +952,19 @@
         <v>3</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>80000</v>
       </c>
       <c r="M11">
-        <v>642</v>
+        <v>6420000</v>
       </c>
       <c r="N11">
-        <v>147</v>
+        <v>1470000</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -955,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>70000</v>
       </c>
       <c r="J12">
         <v>8</v>
@@ -964,19 +999,19 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="M12">
-        <v>198</v>
+        <v>1980000</v>
       </c>
       <c r="N12">
-        <v>131</v>
+        <v>1310000</v>
       </c>
       <c r="O12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1011,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>50000</v>
       </c>
       <c r="M13">
-        <v>199</v>
+        <v>1990000</v>
       </c>
       <c r="N13">
-        <v>94</v>
+        <v>940000</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1049,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>90000</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -1058,19 +1093,19 @@
         <v>3</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="M14">
-        <v>349</v>
+        <v>3490000</v>
       </c>
       <c r="N14">
-        <v>66</v>
+        <v>660000</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1096,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="I15">
-        <v>47</v>
+        <v>470000</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1105,19 +1140,19 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>70000</v>
       </c>
       <c r="M15">
-        <v>361</v>
+        <v>3610000</v>
       </c>
       <c r="N15">
-        <v>55</v>
+        <v>550000</v>
       </c>
       <c r="O15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1143,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>42</v>
+        <v>420000</v>
       </c>
       <c r="J16">
         <v>7</v>
@@ -1152,19 +1187,19 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>30000</v>
       </c>
       <c r="M16">
-        <v>278</v>
+        <v>2780000</v>
       </c>
       <c r="N16">
-        <v>63</v>
+        <v>630000</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1199,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>80000</v>
       </c>
       <c r="M17">
-        <v>1177</v>
+        <v>11770000</v>
       </c>
       <c r="N17">
-        <v>105</v>
+        <v>1050000</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1246,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>60000</v>
       </c>
       <c r="M18">
-        <v>118</v>
+        <v>1180000</v>
       </c>
       <c r="N18">
-        <v>19</v>
+        <v>190000</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1284,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>47</v>
+        <v>470000</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -1293,19 +1328,19 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>30000</v>
       </c>
       <c r="M19">
-        <v>498</v>
+        <v>4980000</v>
       </c>
       <c r="N19">
-        <v>22</v>
+        <v>220000</v>
       </c>
       <c r="O19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="I20">
-        <v>27</v>
+        <v>270000</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1340,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="M20">
-        <v>147</v>
+        <v>1470000</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1352,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1378,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>80000</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1387,19 +1422,19 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>40000</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>380000</v>
       </c>
       <c r="N21">
-        <v>11</v>
+        <v>110000</v>
       </c>
       <c r="O21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1425,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="I22">
-        <v>27</v>
+        <v>270000</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1437,16 +1472,16 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1207</v>
+        <v>12070000</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1481,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>30000</v>
       </c>
       <c r="M23">
-        <v>110</v>
+        <v>1100000</v>
       </c>
       <c r="N23">
-        <v>11</v>
+        <v>110000</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1519,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>70000</v>
       </c>
       <c r="J24">
         <v>7</v>
@@ -1528,19 +1563,19 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>50000</v>
       </c>
       <c r="M24">
-        <v>688</v>
+        <v>6880000</v>
       </c>
       <c r="N24">
-        <v>20</v>
+        <v>200000</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1575,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6</v>
+        <v>60000</v>
       </c>
       <c r="M25">
-        <v>1076</v>
+        <v>10760000</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1622,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>9</v>
+        <v>90000</v>
       </c>
       <c r="M26">
-        <v>575</v>
+        <v>5750000</v>
       </c>
       <c r="N26">
-        <v>26</v>
+        <v>260000</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -1641,16 +1676,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQC26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1121">
+    <row r="1" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5015,7 +5050,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="2" spans="1:1121">
+    <row r="2" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8380,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1121">
+    <row r="3" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11745,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1121">
+    <row r="4" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -15110,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1121">
+    <row r="5" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -18475,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1121">
+    <row r="6" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -21840,7 +21875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1121">
+    <row r="7" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -25205,7 +25240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1121">
+    <row r="8" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -28570,7 +28605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1121">
+    <row r="9" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
@@ -31935,7 +31970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1121">
+    <row r="10" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -35300,7 +35335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1121">
+    <row r="11" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -38665,7 +38700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1121">
+    <row r="12" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0</v>
       </c>
@@ -42030,7 +42065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1121">
+    <row r="13" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0</v>
       </c>
@@ -45395,7 +45430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1121">
+    <row r="14" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0</v>
       </c>
@@ -48760,7 +48795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1121">
+    <row r="15" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0</v>
       </c>
@@ -52125,7 +52160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1121">
+    <row r="16" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0</v>
       </c>
@@ -55490,7 +55525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1121">
+    <row r="17" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0</v>
       </c>
@@ -58855,7 +58890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1121">
+    <row r="18" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0</v>
       </c>
@@ -62220,7 +62255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1121">
+    <row r="19" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0</v>
       </c>
@@ -65585,7 +65620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1121">
+    <row r="20" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0</v>
       </c>
@@ -68950,7 +68985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1121">
+    <row r="21" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0</v>
       </c>
@@ -72315,7 +72350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1121">
+    <row r="22" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0</v>
       </c>
@@ -75680,7 +75715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1121">
+    <row r="23" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0</v>
       </c>
@@ -79045,7 +79080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1121">
+    <row r="24" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0</v>
       </c>
@@ -82410,7 +82445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1121">
+    <row r="25" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0</v>
       </c>
@@ -85775,7 +85810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1121">
+    <row r="26" spans="1:1121" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0</v>
       </c>
@@ -89147,12 +89182,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
